--- a/sactemporal_batch2.xlsx
+++ b/sactemporal_batch2.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="L1_sactemporal" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="L2_sactemporal" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shu_L1_sactemporal" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shu_L2_sactemporal" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9320,4 +9322,8906 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>net_4400</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>net_4401</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>net_4402</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>net_4403</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>net_4410</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>net_4411</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>net_4412</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>net_4413</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>net_4420</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>net_4421</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>net_4422</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>net_4423</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>net_4430</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>net_4431</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>net_4432</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_4433</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-0.001241835694592119</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.003694236726532392</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.002391199319540265</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.003016067044973906</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0001389460420676241</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.0008188204028231091</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0004766186111785009</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.00543415295851525</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.002291328490828291</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.003793349063547819</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.00340671939445577</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.007839460168739895</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.000311970711860315</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.001065508250744703</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00227935791757419</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.00285650708092583</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.000909057436598617</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.213081183493653e-05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0008108239779615229</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.001193131506106542</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0009473045381284349</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0004748710458097587</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.001374948881376921</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-2.500065373993728e-05</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.0004192494053116193</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0009057571340170749</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.0006492515784719345</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-4.09809869560088e-05</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0002589719154881228</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.0009255611086315543</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.000527389755978271</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0001871444271857726</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.0003252527198402772</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-6.025418750612254e-07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-3.091409231169951e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.0002563867024374783</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.0005082122910368113</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.0001853612536177392</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0004685678952070144</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0003496968520879466</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.0005150300749550736</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0005881808005532382</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0002090730364454568</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.0005636326137745426</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.0003291578404144956</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.0004452848662730781</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.0006841434306558372</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7.235412539890897e-05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.001128494153355714</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7.935203304197075e-05</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.0005710459748916222</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0007016464078967589</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-6.783972548289622e-05</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0008778062836678973</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.000346205664941164</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.001005919311436187</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.0009439418345800891</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.000972944213664246</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0004732692867475822</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.0009541229576625628</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.00147182474226355</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.0004340125472032082</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.000971671181195827</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.001141028106473464</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.0001411163306576512</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-8.044581073242011e-05</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0004104797032612737</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.0006102835461522065</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.001069187523108598</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.001116199267832012</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0007027059341960279</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-8.690881194358809e-05</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.0006862296366282154</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0007255489107974753</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.01347932215107e-05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.001084058467028923</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.0003816522406858606</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.000609240846740909</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.001031060393973525</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0007755057686299695</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.0003973718753595882</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7.216356138547067e-05</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.127687211847288e-05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0002855874488866385</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.0002832910079134739</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0002535945792442046</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0008203582301724234</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0001282674975114397</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-7.911749410251584e-05</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0008616285997918443</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.0007730104160179408</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0005046692542199099</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0004606262582080117</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.0001872400554641646</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.001041862827515337</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.0001313225868802052</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.0003674107999617133</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.0001387659907212975</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.001291270435389179</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0007516074654694039</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0001487096011838988</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0009875347277411156</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0002424673419475372</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0007233951675430379</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.0005343656658266997</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.001431782869995304</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.97929243001555e-05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0002506609248140675</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.0008232248478792475</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0005278872942726336</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0006038483789470525</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0001716649174725089</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.0004077430118448078</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0001325178592339702</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.000245258483176987</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0003825825363761401</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.0004332260899381881</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-4.895046533367261e-07</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0001772640202185174</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0006660392419613164</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.573393170177893e-05</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0006026289250101316</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0001042017791401278</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0005778468255433235</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.001220676821124774</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.001304599508398181</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.0005416756386525871</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7.816806669021197e-05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.0006220128210912895</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0001895259971066012</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0005179372675500186</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.0002842637212626945</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.0006712816567313594</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.000821354720903974</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.0002641419479803556</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0007195699766166162</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.0004659284976924032</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.001465522756324411</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.000386843151452264</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.001510013689081625</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.001187500290874866</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-6.898254176874743e-05</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.001127592787022044</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-5.898240755307525e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.000967930311287941</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0006260684028668968</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.0006019893271824233</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0007060442669524507</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.0005183003751525525</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.002120686032813602</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0008903957899657968</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6.068981960335314e-05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.001032065635199489</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.473261296922102e-05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0003759797224993692</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.0006194909856415701</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0002616255050063959</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0003512275639583688</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.0003293090165646125</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0003809746153117761</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.009675020189099822</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.002120284604508211</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01048352723245232</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01118367978777381</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.006569890735176251</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.01371665327888094</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.01245237810439935</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.01197562035054101</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.009105179979739591</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01108491978217548</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.009060681157266657</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.01749284313722458</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.00631352950490821</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.009637536575191692</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.00751548929386432</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.006999243406239882</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.01028459430320414</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.005925816067098093</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.009108578897431127</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.01155347435596489</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.008598108756629667</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01111229682395434</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01289260236651697</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.009685269444112405</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.01122280590861224</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.009777013298098476</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.005100531683800786</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.00745811847750591</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.009941162952177425</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.01249712951903963</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.009174859001585545</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.008008073178691117</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.01103883415615681</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.006605736756039074</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.008193688069476604</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.008113548134700626</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.01128317293570989</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.01014948009567703</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01036615456889301</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.007957035655977683</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.009001199819056175</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01177777156293557</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.005507599238713586</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.005117501853264154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.01012322294222718</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.009153598016498204</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.01044185910882902</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.01230779427519275</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.007863421470503893</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.007993261073574037</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.00781205240906194</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.007085462813373846</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.01028663215333519</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.01013477742217346</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.01121154280839834</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.008205973778206671</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.008698356638045841</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.00963994966856932</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.007299483416970452</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.004939336379506031</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.01209822069370148</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.005837363730613434</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.007159011079532878</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.01080284564474354</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.008642395528487945</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.01156395854317856</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.008738124295232474</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.01108420955437453</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.009817920001799506</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.01134879896918493</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01099469890147332</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.006392424858406305</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0107165252747213</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01002409862271192</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.008815997797405989</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.007680627331239261</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.01195644935097909</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.004529135231395209</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.01017622145486207</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.01031500179451627</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.008989570903255147</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.00964171579031756</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01139330116149435</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.01232143848897351</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.01233219160556243</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.01333010374271137</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01109152232431746</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.00717048846268113</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.01102748169633527</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.009345713085968856</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.01354198353084352</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.008933060973082732</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.01263787763282538</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.006355957264088533</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.01224182031734623</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.01085847842587921</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.007784949704523571</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.007566239307473668</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01169382858110169</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0127581346594749</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0100519878978768</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.01328414947804946</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0121825434287315</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.009489834099186582</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01112292810930804</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01029213810939984</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.008306036085454169</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.009777074236223074</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.009579064852028788</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.009869249025861237</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.01154372236344948</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.01032408134992582</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.007099470546245033</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.005345888806040161</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01316747624019238</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.007839470908455977</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.01146460979652046</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.01350370287141928</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01524279421483672</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.01170845887382433</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0124911650551255</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.010884520232911</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.007837867085308715</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.01155867859246326</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.008251022004540998</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.009855075655084504</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.01212289982581499</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.010481913169215</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.008121836852916118</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.005598171477926427</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0133828328622144</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.006150082561314069</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01294145487047824</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.01400550716167068</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01362969389783694</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.009483852209477566</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.01194668552283057</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.01383788488009416</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.009556152653932294</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.01002695589871081</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.006845558910631485</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.008360425205941898</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.01424634066106086</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.01054709160863807</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.008656472484691827</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.005890897899378603</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01322023767937076</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.007478425935716223</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.01300923096455035</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.01370850420957908</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01422789793452163</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.009259272520356866</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.01199037046663484</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01364285176474028</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.008319658320019444</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.01067497433189929</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.007884808452038308</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.009719026474156562</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.01522758924036604</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.008761863411401309</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.01056218189173359</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.007413094461964595</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01208476392724706</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.008101189276145244</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0152622686085844</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0145845857175467</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01452255512051895</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.009330916226995275</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.01029889533799506</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.01453617061783411</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.009970215033650554</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.009748816659087344</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.01075595204298136</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.009603961273835972</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.01373812923763529</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.0123573103337234</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.009740586331064567</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.005757566566632972</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0131794331916156</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0102024779132004</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01483315215570858</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0140657416861853</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01303256230401328</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.009841397810007235</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.01079414308206058</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.01263612670655903</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0111166244562286</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.009136701949386445</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.010804391013581</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.01085826142025831</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.01209140822856826</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.00964928536999107</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.01202205321060698</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.006069678027347114</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.012547522555427</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.009094135173370432</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01578558518320361</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.01507488876033625</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01296006345520861</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.01088381782248385</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.01322752404980241</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.01024431080603752</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.01159312667342709</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.007883703102870268</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.01064863755918976</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.011750275441624</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.01199947002767834</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.006848019868381371</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.00990013625198634</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.006447690709323856</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01228983459600101</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.009323734992490687</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.01614381547537076</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.01385649491036279</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01129245999611549</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.005832415108356296</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.01336124098359872</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.009231279425733879</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.009581918384378699</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.009112540228202059</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.01188665209480809</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.008465808950669897</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.01162436006171547</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.008432295785509174</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.007957269538981713</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.007263174489312656</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.009262898070951072</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.009112398759144628</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.01726284215484888</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.01319371824177343</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01062102295330065</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.007176818761458196</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.01416515696360661</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.007925287845128855</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.008369086242704627</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.00865206618601269</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.01229285739279741</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.01064812165890758</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.01102216504193115</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.01102930587817039</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.00993798388054788</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.00821295315271931</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.008154452867386731</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.008611580715116364</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.01775328778620507</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.01296037984632853</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01117162439688128</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.01059970488108016</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.01518191224062724</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.007647012990755641</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.007492592933380135</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.01406930167132335</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.01107519719918679</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0125834665121829</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.0158991497215791</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.01176077353903919</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.01078239266955766</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01063491645057866</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.009525609649027286</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.00875014950038649</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0170875857931997</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01237311809323007</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.009903407931782092</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.006841425161082447</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.01469326763737323</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.007644279021884714</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.01046564775972898</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.015560909841588</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.01188510112294303</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.01282042950579125</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.01349911937868392</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.01049405688753117</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.01260276642926672</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01059318947276261</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01082520997545973</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.009952767862553925</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.01780847713928939</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.01153017171007871</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.006873912056476194</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.01020643657364467</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.01420197697838717</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.008069735484226868</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.009034477156841877</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.01457624434566501</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.01200080960477976</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.01545002189589646</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.01226671756279656</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.008460622251522585</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.01014134240437146</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.008966535477640588</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01023279158092691</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.008722497373961836</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.01479197016933034</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.01134995054210954</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.008955661107319201</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.006687792565253404</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.01362531529464568</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.009359593732758893</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.01055060840896103</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.01520690428646327</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.01328472144935328</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01450374054634819</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.01500213755408469</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.008728131353184508</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0109886706840279</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01061164841682777</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01038197309541146</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.01081860872941749</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.01228139512168886</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.01070679684928564</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.009313748435748909</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.004543568974121906</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.01424345820716565</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.01162791626562314</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01096603983032196</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.01770091271433658</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.01257166609466367</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.01421702914447738</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.01502500313868545</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.009258994323664321</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.01003877320880646</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.008021548555925368</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01069828532897141</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.007978451885498809</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.01046835627643961</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.009308528818749863</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.009617229704438219</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.005203318062194739</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.01390321750977028</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.01256424443784756</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0114539841525104</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.01248713509731058</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.01087661818958168</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.01497240823953504</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.01535501411439353</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.009688199492001739</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.01064240634313447</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.008599555638252494</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01471961106505357</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.008987054618856093</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.009778629822220514</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.007872108141397875</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01221689837971857</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.005032792771803289</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.01326698963350105</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.01142873030214181</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0106431048314246</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.01249842211293779</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.01035068553002579</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.01438064271309133</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.01544325535030945</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.009815152285219141</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.01186671977751649</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0112217308241409</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01643016559042805</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.01108579427823592</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.009717167494933517</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.007671657802144849</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01243279203756124</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.006060636543508559</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.01142157722795788</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.01004168394176</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.008377829280215741</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.008575124153117028</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.01122409382596111</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.01553843912042037</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.01518557732086315</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.01162893576748603</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.01267286483082065</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01034968280788051</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01770053076552611</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.01022718174070671</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.008705367280085991</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.01213454115097646</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0137079136334811</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.005969203752223013</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.01006657568738724</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.0102994921142618</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.008224162004525071</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.008939037734424778</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0100960050677246</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.01508130767309694</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.01292711851653191</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.01115156108174789</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.01200429234634473</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.008560330829514677</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01605405852094022</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.01021504635098643</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.008899379046209783</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.01198675238564609</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01632657334898386</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.006861970533780789</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.00958897164874486</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01385778862428802</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.008487175962656895</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.01038555145091272</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.01169580052805436</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.0141663286939964</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.01100955759424727</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.01138782633411462</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.00956591740534922</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.008013413517221579</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01696761702096284</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.01129567915503125</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.01082465378952975</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.01032270488034738</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01552212253211817</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.005838968150857856</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.008796274703932263</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.01347740405763791</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.008435775974150928</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.008285637706822195</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.01506770790293027</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.01264458679974167</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.010945419659399</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.01502604343261283</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.006703467884058983</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.009146007722056811</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0129136243533493</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.01012754976315825</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.008858958065262511</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.01133103888601251</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.01361725669593422</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.00510050991617087</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.008506249627884844</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.01422379352569957</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.008496357145727666</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.008666366592112553</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.01474035612633822</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.01165182602478327</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.008943633325780961</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.01581171054560603</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.0081234505684345</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.009043123602957493</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01053594017765174</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.009824134786773747</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.01039693384160122</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.009710792722033693</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0150516513937229</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.008594918633908337</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.01030100360213168</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.01492435151076785</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.01065058563848361</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.007600771267997663</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.015575314241387</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.01175576893916867</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.00525169176119107</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.01417479539732969</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.009350617403319618</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.01018352109879793</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01102867256784129</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.009141070204211919</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.01193233352898852</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.008212124469808813</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.01554266776573172</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.009533057289281206</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.009753201988544584</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.01424472913297261</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.01365914023538847</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.007116356283980471</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.01398810054480969</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.01074438781613733</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.006617111762016571</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.01162016130477166</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.009325334959924686</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.009679080629580067</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01028937829609174</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.008413216019679639</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.01361244741880859</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.007330352379755807</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.01240544855203767</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.01155743660529854</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.007972242493878585</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.01383245931856436</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.009038272027616284</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.008740511591412309</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0120169203211718</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.008189458691291899</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.008833515268538065</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.01071444125327238</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.01110930771608941</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.009041647902092914</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.008706191848811311</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.006901057293574634</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.01531606215864434</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.008500383269901903</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.01044380808732702</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.01095806247573011</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.008625046393708483</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.01874605540963583</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.007062578378046501</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.009340665045240509</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.01337429153818669</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.009064629367854753</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.01141688362298889</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.01067245127952295</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.01267666851523394</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.01190781066231415</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.009208726096729448</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.007931692737525486</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.01271073956870118</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.01178621784770873</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0126340447034775</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.009938074207887998</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.009745185923132891</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.01873543158622196</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.007287869324176832</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.01043534805400871</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.01217539285130759</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.01218909746318988</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.01326088434706965</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.01234863620550028</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.01191200526423649</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.01328828193121265</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01017935623012566</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.007949113230766457</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0140568003586749</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.01421252687288503</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01324285766959482</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.009962361774029843</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.0103948993845961</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.01862553371656823</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.006414594760841257</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.01024196076767036</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.01286458542748711</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.01315102952402312</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.01227087888124805</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.01462797137573691</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.01098826042255673</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.01342197552911179</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01115703740061792</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.007633181529860168</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.01581219610210509</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.01294314589479579</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.01515240320364657</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.008644098831638936</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.01218624652185806</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.01666213339021109</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.007947274462513098</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.008013908253486891</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.01317798830805765</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.01314586404698478</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.01270920821533473</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.01785124325925835</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.01194974252937047</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.009273894447821686</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01040481313127024</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.008144642929959088</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.01470871451762593</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.01172809844141385</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.01456678265241659</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.00894188398022177</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.01117933094456463</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.01694002315376287</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.008019881922443045</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.009574794650728153</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.01188744481287359</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.01522826725908241</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.01040533556787421</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.01885062218865794</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.01095371923414505</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.006891958647351099</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.009535454920837263</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.008524571081008819</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.01257065507293081</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.01123901438424785</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.01489284046090612</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.006441527068871104</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.009499010777775154</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.01494138567712879</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.009116291801483888</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.009072276551579406</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.01443077983858655</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.01698840543387266</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.009149563352386597</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.02024862549167716</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.01099792858397981</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.00923738946024362</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.008857257079130119</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.009657956137935894</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.01141250519067935</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.01120012069509358</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.01242669867047981</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.007897817369853521</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.008696199963600921</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.01411186751145685</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.01235423195250354</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.008818522193911349</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.01602323015418834</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.02025209026611744</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.01144013818540846</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.01791346472676753</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.009850376137349154</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.01144429019997233</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0130229785811164</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.00883621906956604</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.012987533616437</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.01095201979758258</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01210827244753243</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.01040826130300097</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.007560916411142666</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.01329144490539767</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.01201659918115943</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.00753802309541748</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.01452858529026015</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.01717852070194364</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.009976280151262366</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.01846936445324447</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.0117293581218124</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.01221418892631871</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01442046825047529</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.01244436972907958</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.01345530267479187</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.01156928183071165</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.01344769641913849</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.01279008666784749</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.009534375611869129</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.01318419481647576</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.01130557997787744</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.01013731103003832</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.01668575087553248</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.01569370150673927</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.01283831765632549</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.01747158926676902</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.01279563224850461</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.01362012781833072</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01131193387995433</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0128028269443693</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.01345227972208755</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.01216406785096954</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.013900881754027</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.01316309353132713</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.009063510331194246</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.01561851761719752</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.01288127986801504</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.01112415861613398</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.01547318013261297</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.01456288190217694</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.01470644542307329</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.01730776259683466</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.011342028711225</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.01400275728507647</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01009810336358643</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.01126032350591584</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.01463432944683391</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.01297662603050437</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0134129308293009</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.008493430734439596</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.008837655260022833</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.01711752918164519</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.01482273288251892</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.01337201247113929</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.01811474019982186</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.01560108706836319</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.01354371121425653</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.01627777759966749</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.01115409224175575</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.01579797900382497</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.01177019222757153</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.01156849841739908</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.01425748741485347</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.01309112380197852</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.01311425609032237</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.008390231170557804</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.009426128262253364</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.0167608823440964</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.01628916034257801</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.0165909644593062</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.01748795227193035</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.01651984913437825</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.01273036435081344</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.01491233499039721</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.0124372376923298</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.01648493098231635</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.01275121470799832</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.01100469259609251</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0144634870191112</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.01352213726605668</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.01466087020466237</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.00887323675300296</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.009818195675921973</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.01570240946860067</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.0170357125734376</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.01546126425942021</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0176985049320087</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.01401671875531874</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.01259932087918085</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.01284000281274428</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.01099180955946194</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.01606708427562908</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.01276647138120318</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.008630985007813641</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.01484073992432969</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.01286467200547211</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.01831697531361429</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.01225213577351446</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.01214014621232498</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.01610422231308853</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.01768658243801408</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.01534635292015435</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.01819920721386046</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.01414511793824305</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.01497960739004106</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.01177025732140211</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.01196806278364875</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.01522803760780992</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01299867361983993</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.008513689177566956</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.01389108950567611</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.01257669230440399</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.01882535589093758</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.01199830036177143</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.01284603121811819</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.01441796424862861</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.01759604325641629</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.01828338755440201</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.01962660821655313</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.0166162906286718</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.01623212656590644</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.01261920459233592</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.01036546949641143</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.01356028441615708</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.01276786625170542</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.008835087429443122</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.01415332716586717</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.01144674415733265</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01884050567975004</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.01039319428609183</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.01137400563049419</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.01491452775851295</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.015656237120545</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.01593390449941252</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.0176936547197556</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.01375762789431861</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.01708256558017259</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.01240260571776288</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.008912550206133265</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.01209074898591654</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.008186399537223428</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.01037953007126428</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.01402101765404495</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.01076035579777333</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.01894546409642747</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.01039431040256381</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.007840897892290546</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.01622233219870471</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.01532455561768984</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.01395213850607556</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.01655896329618322</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.01521150767379518</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.01385263673647109</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.01452924165107308</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.008106273400797503</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.01006761137154955</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01252214202206057</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.009723084436080696</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.01296467317056087</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.01158140337659512</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.01696625134157886</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.01089869697809717</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.00795552875309416</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.01730817386627924</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.01482208259513603</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.01280990532030349</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.01236626714859944</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.01692270575630599</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.009378760473187716</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.01725155957881775</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.01027998170925963</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.009259570165972758</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01579602360451417</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.005778219804877457</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.01327341515049562</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.009181819503065633</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.01356338963986129</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.01189712051660621</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.007637882620891412</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.01425575178316858</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.01257463795344494</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.01177215270636415</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.01013240288415697</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.01290294506509579</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.009229820120615129</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.01547431415127201</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.009763048830651166</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.009011470137676895</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.01209432928948596</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.00526099300531213</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.01013344051279622</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.007440762579154936</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.009474476478363329</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.006199526132895829</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.004431074163455324</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.01253176924180428</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.008214238535819929</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.01105910747384339</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.008287131483943232</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.009183696151212496</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.009983763533974368</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.01214392386258966</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.002305644890896021</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.004109055175846129</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.002179087204938747</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.001350227098380054</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.002426628410168204</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.002181478908081166</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.004883460558556861</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.001931921767877991</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.00075900642040886</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.005979934467363217</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.001457718482148114</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.00657475057016522</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.001926123953184818</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.003537714548571734</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.003691718955682672</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.00570080282716768</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.002578646885726538</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.001427304559787027</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.001748346138415652</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.002650376364424762</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0004880411809785477</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.002875421975010304</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.004864547105925494</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.0009197451459262621</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.00051547973563528</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.005245091661026894</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.001592754465123865</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.005944132988179262</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.000120008642484335</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.003052178448843455</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.002984242224242293</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.004799229434754201</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.003926430664253013</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.000681940351570158</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0.001057346647243346</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.001546608948480828</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.001789897330348191</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0029562616702389</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.007204420555784926</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.001402113706626551</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.001632637133902411</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.006151275692786524</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.002784849368502131</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.007460178503310447</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2.595797418855002e-05</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.003038786818169429</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.0004787056967277042</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.0001081244495825076</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.006656781901151656</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.001604179939158396</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0.000477212730140448</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.0001189884763527334</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.004369252070720525</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.002126070855288731</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.008073591264808519</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.001015947916041821</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0001305127936496493</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.007260846042397713</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.003406509744057488</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.007734235055355515</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.00333336846068847</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.005854564966398152</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.0019431938930683</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.001020623794578651</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.006846296725005863</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.00204744422758674</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0007604965789233992</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.00013498829027946</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.005358108881723764</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.002573056081404228</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.003518286679289396</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.0009136357599662878</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.001398763792762026</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.004785711384909062</v>
+      </c>
+      <c r="K66" t="n">
+        <v>8.500197343721572e-05</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.006568104072605555</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.0008289929842031063</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.005333458244571905</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.002778243264259256</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.002372657919965033</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.004323804359514426</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.002009161947871146</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-5.498925301819646e-05</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.001446195410577506</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.00432387564977369</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.004925095363126256</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.002071754329076232</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.000124143379344272</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-8.031207402344317e-06</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.006461998883692861</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.001349627370679071</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.005599050769510405</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.0004135807122899057</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.003340305943792208</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.00518635901986981</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.002672970136071237</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.004592116280166495</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.001731185791790718</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-0.0004288107443651751</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0006884125107621093</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.004127824069034423</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.003274907604584752</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.003325494557996629</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.001244641439786657</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.0004886326608264036</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.007420246192600069</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.001183146716264637</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.006240442824512491</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.001425172155249123</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.003623372115325275</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.002871936521629296</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.0009808917510528699</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.004227190234406127</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.002252258556074891</v>
+      </c>
+      <c r="C69" t="n">
+        <v>8.446110268162471e-05</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.001534467654462269</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.004556128523688032</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.002903087581865587</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.007051279851754095</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-3.213663038152955e-05</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0005246676906324403</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.007600289941593193</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.001538289200980753</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.007205653265620682</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.003429737916557212</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.004671024810189947</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.001778832085982331</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.0005604832860936113</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.005889481771826312</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.001914146694195182</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.002664992871008092</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.002053847999372316</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.006647001286801155</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.001741126866820903</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.00696466388859053</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-0.0002924283229449129</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.0008965328115184296</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.005904137862701754</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.002119626280584452</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.007822113873273098</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.001056287838641701</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.005445970465150325</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.0005112646134635825</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.001312612232176491</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.003669608690743174</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.002639380561141411</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.002271113430624421</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.001235425623286249</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.005695357583287673</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.001943159799471536</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.00596969074514142</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0005332508251187514</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.001387084483551841</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.006124994170202587</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.001229755302572736</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.008982080473426397</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-0.0004820008873319953</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.005789195871006966</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.001406990566596911</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.001848215388946054</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.00220003856887519</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.002487845582707651</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.0002804257500486072</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0005787349164472111</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.00658801956610407</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.001923331233567894</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.002654898905894971</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-0.0006856434615045264</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.001933632679069062</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.005396801957371699</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-0.001009358333690595</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.006081276117408952</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-0.0003777603864266308</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.004786510135627809</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.001932652819453966</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.0008872157467148477</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.002924674952970462</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.002108052680715843</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.0002200100678479096</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0008478934921099684</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.00652268136458234</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.002880866043236889</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.003296620597632467</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-0.0001118987091871996</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-0.0006718656573703975</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.00569575537892651</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-0.0006947188242496666</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.005262889727300686</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-0.0008039481913277618</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.004514870937627077</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.002012927172185957</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.00127402371789908</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.003013710976718659</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.002719420986940691</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.001457681277722324</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-4.905988270914212e-05</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.006367955192256621</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.00351713142805039</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.004032448784436187</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-0.001090424377925419</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-0.001163105202583973</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.006244522955086198</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.0002409918619368529</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.006077006718435344</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.0002645532470757988</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.004750230889807326</v>
+      </c>
+      <c r="O74" t="n">
+        <v>-0.000692776938189413</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.001215816135651259</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.002938827008477239</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.00120212470892178</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.002449209402071594</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.0003395940102898009</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.005803537633939489</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.003139875933861257</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.004123878769919208</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-0.0005026065433346123</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0001893323451958474</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.007097922274252768</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.0005041806955160175</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.006047569001169486</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.001315266496368632</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.005292771732776717</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.0007436451305889274</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.001721408892106445</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.003577641295416752</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.002290292543676741</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.003175140453384114</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.001647642765495642</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.005778112762917917</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.002071927084266653</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.006627524038926445</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.0009429404461412911</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.001611586300894411</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.006034471962760786</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.0005836221322218038</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.006090619116047138</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-0.0001594060046971417</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.006275229622545138</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.001726208666138105</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.001596327223184662</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.002188157148982443</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.002473003688697952</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.0001207907785558581</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.0004497431211144468</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.005426955645889661</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.003020052773859561</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.006078909272912053</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.001182490314027184</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.001764583733541751</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.00625498267520462</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.0006313084896562532</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.005968825608504995</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-0.0004193810587416044</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.006117201354029098</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.00225409830762086</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.001856381591508615</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.00230795661461482</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.002086056177250839</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0.0007559319872071695</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.00135318660504382</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.006617379215096738</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.002378939551467847</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.004418622759438919</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-0.00100615675005492</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.002589891688028149</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.006423919833459579</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0006464855478203589</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.007140225470547694</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.660706532988306e-05</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.005303523737299465</v>
+      </c>
+      <c r="O78" t="n">
+        <v>-0.001643593814725364</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.000236126740193754</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.001427340715121595</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.002519582863897244</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0005717230199710203</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.0003265982198588446</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.006891594810826975</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.003993018050179052</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.003501529750147924</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0008269329615965868</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.001603640443669876</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.005746231985372123</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.00177408048358561</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.00675409895780237</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.000503387444048542</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.005090844658520804</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.002815927540174494</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.001001920203689444</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.001962517648658807</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.001358870890514968</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.001948925742419444</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0002695389726868076</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.007549978124440788</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.001487477212924342</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.005768626797734558</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-0.001101917093494522</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.0006937073454908374</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.005896186510182381</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.0006053424085711273</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.007339962169143155</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.001089440757435669</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.004963923571189824</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.001033015331610916</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.0008022283896500702</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.001942713183273288</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.002578467365683402</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.001458954460869988</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.001782284264873092</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.007508527427104486</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.002037096621448755</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.005387272160968984</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-0.0001617222496733461</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-0.0001845676560555555</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.005357956644951399</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.0007985772764459719</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.00633089154803454</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.0004871428234292882</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.005932736320575626</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.0007518523541923134</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.002545029146051832</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.003159263203346225</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.002715566782790388</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-0.0003838007498409805</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.001660685766594642</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.007545416314955685</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.00261392692802262</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.004358008026723956</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.0005476994819273289</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-0.0003204241936412839</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.005668054070327442</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.0008339709638049384</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.006845995601157087</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.000770411570252823</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.007104912682139841</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.001363426708043233</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.002530231878955449</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.002468926949250596</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.002080226109105926</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-0.0004435890229436703</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.001249474134647955</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.006777006688766076</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.002506835379576779</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.003915977825300684</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.00060096772442664</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-0.0005050457184104273</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.006227624473722905</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-0.000948340110906267</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.006833032456756882</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.0002159164295461677</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.006555473292441309</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.0005254086530031702</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.001273860984149166</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.001885678477782212</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0007252592106712068</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.0001456911824916241</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.0004467036613888808</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.007064212379587946</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.001002765747509453</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.002535923148685508</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-0.0009791381899149621</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.0005179805025494806</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.006818559061443039</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.0005583951314465628</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.006906155251716785</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3.051613917269449e-05</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.006171405845446919</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.0008530501737027413</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.001598504789712003</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.001012213608286079</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.001909608811514356</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.002194348803274376</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.002744227823103529</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.007235592029592417</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.002174621173323665</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.002771268664423588</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.001096130465906341</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.00160322471530776</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.005549762557795328</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.001737978057156291</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.007058965992859202</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5.063056456688426e-05</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.005668777363620671</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.00243181280192412</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.0008652930889417364</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.001011538044449978</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.0008628832354182867</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.002389305727420371</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.003212042862674301</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.007527305284581589</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.003025391740158687</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.003503247641072625</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.001052892123709477</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-0.000361994662141759</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.005508999999746325</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.002028205657700097</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.006888343327415214</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.0009180623710001281</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.007078641655088642</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.0008186179061247065</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.0008400702255163613</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.001112266715256282</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.001876711500001941</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.001132346315121583</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0003104799319278265</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.008395716543448844</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.003517399154940886</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.004588128985434993</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-0.0004669351266245535</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-0.0007734488779659739</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.004973090086116492</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.00059129379568748</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.005758602045282638</v>
+      </c>
+      <c r="M87" t="n">
+        <v>-0.001144845406525342</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.00809304629863771</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.001138673337715723</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.0003264914780039133</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.002342601577810733</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.001515017507261815</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-0.0002057574117663484</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-0.0005707623309455242</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.006470207383157521</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.00167712789796255</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.003165703398241565</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-0.0001788755689434632</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.0003299152765515363</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.00490510848127966</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.0007542016995413709</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.007407883475043141</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.0001478674367928846</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.007080106019141397</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.0003954046653971783</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.001680058712490817</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>net_4400</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>net_4401</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>net_4402</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>net_4403</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>net_4410</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>net_4411</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>net_4412</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>net_4413</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>net_4420</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>net_4421</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>net_4422</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>net_4423</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>net_4430</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>net_4431</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>net_4432</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_4433</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.003909324343181216</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.003159145107478088</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.001180817010842045</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002630640485625059</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.004380976187935128</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.004118111736199304</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.002961783985785536</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.001004201008815169</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.003165220639465992</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.002745803919587314</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0009282249110318236</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.00689734168844009</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.004155843341900815</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.005137449436582148</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.002554710356031996</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.003621226599914783</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.006097684393913975</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.002951609518640905</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.003420706470396659</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.009542772434437236</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.007019024935532213</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01038415335982942</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.009978066891552664</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.006266862887352748</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.005064091742225845</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.006981717217942355</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.002790912337218919</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.009639680207736645</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.009055832420593409</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.01048834485562288</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.004607129427048069</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.009683954753885849</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.01058477924527779</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.009652112971264792</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.009798622547084631</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01429388455318177</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01426650588111139</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01103322585357616</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01617799087754166</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.01234545592320097</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0135965953070946</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.009912671020573622</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.007026412954165708</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.01095782663724094</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01241240737789566</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01430538410493479</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.01042898705181112</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01880984780922354</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.01456972707158759</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01634694065612369</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01668595979620527</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01643661426392858</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.02075646780142001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01843521626099371</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01677945860302923</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01791756830562766</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.01558187696177053</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01263319498697102</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01280458902559631</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.01462059784017432</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.01524584416790731</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01343054260532091</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.01189738094749625</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.01946642727685154</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.01964626165958332</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.02370214431875487</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02076194704672819</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01782110870070837</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0224903317793178</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02413531213387236</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.02173902399576441</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.02227233187617357</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.01606035287675682</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.01854645072400747</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.01743219491761085</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.01861607851992757</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.01931213222685781</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01503931341356722</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.01466738289516343</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.02073621089546628</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.02503180016580903</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02488494521868334</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02248287260870637</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02087012738837379</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02959750908745114</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02669281715576265</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.02622501539672916</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.02727629376051684</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.02262229918807305</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0247408522870147</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.02063933351240495</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.02559809802836399</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.02285261287922821</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.02078096812825456</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.02012531603015253</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.02754845211922354</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.02911862240514802</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02656515548506048</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03074339678524578</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.02455069314067057</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03460745079548816</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.02651116454288489</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03018666205169009</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.03389300987309728</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.02674545496581686</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.02754142318795957</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.02562029786490206</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.02899771807363373</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.02857756664886514</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.02809466967776061</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.02409093352370444</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.03091234903198989</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.02932167845156579</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02996819251807084</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03303422839250442</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.02930025640588507</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0377634387493837</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0342054588115439</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03466529284096144</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.03966982306942553</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.03185593466530969</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0314474974209424</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.03097324163859537</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.03578012699978848</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.03524590722794933</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.03351396426957837</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.03025608049375579</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.03790822973164217</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.03421719068072536</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.03477441590181975</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03833088375945409</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.03400270304776367</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.04199797976407102</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.03867369260132832</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03696642872695419</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.04383443171848538</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.03878451101019081</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.03759202672947596</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.03514309016951654</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.03955822132951506</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.04060842815461756</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.04185708114661932</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.03461726322805134</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.04404538238779878</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.03944290633822778</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.04061898183073128</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04414123002045725</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.04143193322069893</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.04989035158953609</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.04295134555929708</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04347463903166045</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.04775305587108455</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.04485783363447304</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.04316118731367675</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.04034228637880108</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0462684760769125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.04749200284553959</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.04780496243169586</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.04016778568586812</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.04938610945448292</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.04582383862566025</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.04610366632843529</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.04838621765233659</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.04436270520211313</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.05423737427067355</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.04828279479420418</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05129024734117895</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0491534939762889</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.05320915405769586</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.04853581088379746</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.04461780269422713</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.05051556974078722</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.05321118505513722</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.05335645079827477</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.04460264140550534</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.05304850372033342</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.05052618895422257</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.04660722511633503</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.04917072753559949</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.04526891426678754</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.05743002622144407</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.04972976663409302</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.05093721372316695</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.04854694749955998</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.05509837204764001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0484013354565756</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.04733407644053942</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.05339255386304811</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.05730886954640939</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.05473867965792024</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.04973267148237331</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.05893857711762898</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.05083809613012391</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.04722181177398981</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.05060861802586362</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.04358626176502106</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0567621378487906</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.04903211179729269</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0524855807532327</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.04914669366438101</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.05677030706586821</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.04827882017903246</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.04826366587975979</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.05134555276089257</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.05756110450385248</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.05398871855032771</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.04864848077324445</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.05872354141014154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.04774077399961748</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.04346280504623792</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05034251126155849</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.04198671742424014</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.051830344902631</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0502423887595872</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.05340053271934266</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.04792375473964258</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.05689893148383664</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.04547605477198682</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.04848553593479766</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.04867222962639819</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.05722077783543427</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.05296730790747311</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.04846339620900277</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.05589488807056063</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.04522091838260217</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.04069429910219924</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0464085778416524</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0410202606795388</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.04976514501383035</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.04976244973964361</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.05025749108298846</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.04514090626757174</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0512557610254791</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.04417909330031761</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0469208475775405</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0470603958554951</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.05454222794363785</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.05178183868193477</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.04604695698046347</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.05310586914833573</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.04228002123718398</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.03708440267105035</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.04440504217186067</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.03807378802151914</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.04707925768851359</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.04642004342512361</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.046703946344188</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.04223846517126934</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04741382283012476</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.04187642008787152</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0436691870403744</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.04735930019073242</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.04816982785669854</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.04856796422391199</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.04528244713634803</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.05127181278397378</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.0401600334885921</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.03517030415674123</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.04235213971889305</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.03544186650428857</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.04456260220119425</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.04302256901059485</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.043264418745356</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.04034857423793153</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.04180943040852677</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.03722332711142951</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.04048903567826552</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.04206380379430859</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.04530069373063018</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.04601325235885271</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.04307000985350996</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.04714922997536381</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.03829106867109557</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.03403374870233367</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.03874305258994656</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.03414665191573425</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.03935607745031831</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.04150524117189636</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.03896382654357793</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.03752054241776172</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.03704622602733328</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.03308965383952103</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.03642220012623307</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.03727236732834927</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0410550795780384</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.04160815043883054</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.03992852732731585</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.04348304686195661</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.03529405537620327</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.03086700229864113</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.03552201167697527</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.03221683906673559</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.03459482948306283</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.03839255207610676</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03597586348436278</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.03517237626176919</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.03344707475645868</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.03128668038840363</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.03546634503048203</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.03516793954132583</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.03723144110895445</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.03703112576386807</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.03721348382341602</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.03932415772930602</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.03527497116902447</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.02907372289756217</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03259842924888088</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.02921144175424819</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.03136246562919749</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.03474858311975218</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03371383754104551</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.03230552856734397</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.03142067127970197</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.029554490676525</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0320868530920456</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0335665160048696</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.03452023743891712</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.03289415551446635</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.03394676904826561</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.03691826301157764</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.03469889631453244</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.02839777618988692</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.03225846739242114</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.02773258971453995</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.02917126935580605</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0322761989434576</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03251563567223459</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.02985519673726838</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.02830525928990128</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.02774914571736593</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.03023219050748797</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.03055890084439297</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.03237805816154884</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.02990311613123014</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.03062870019361727</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.03313553622240813</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.03265017263470327</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.02722832984644962</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.03095202397643737</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0265169821528616</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.02704546787622854</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0297886237049334</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.02880619144053881</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0271393441808262</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.02549327962742103</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.02643919435455852</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0288050857759193</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0292568591668012</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.02921719037918187</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.02683421199183917</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.02849710136384702</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.03068851560042529</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.03136100880270382</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.02624604813327602</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.028709101495858</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0256596375963631</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.02583617255158971</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.02760685199129208</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02672169235207647</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.02610207433858262</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.02309840532152014</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.02595089648420854</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0263063904772</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.02774824684402119</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.02611320092694566</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.02599066744019182</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.02623903473599967</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.02861097783146913</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.03045781678756611</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.02413683503809807</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0278045195661131</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.02295417355676111</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.02512304200875204</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.02504812568816103</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02540285339742795</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.02594182629344965</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.02191772937338152</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.02432664697638656</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.02433650579297995</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.02572901565402188</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.02501442352807114</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.02452646396953546</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.02554014342019096</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.02799345037246388</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.03057140851055921</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.02228944302501078</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.02674728893584491</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.02216893100558082</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.02471254386167786</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.02266725256901181</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02343247592079933</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.02415490615872438</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.02079632298884664</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.022250123097296</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.02305923281116217</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0250373183598741</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.02347764826688743</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.02308602163544341</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.02477147115694908</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.02594009865730161</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.03076091814800117</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.02059846122870619</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.02703359172231405</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.02173553760590039</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.02284206588501041</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.02167966389990095</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0228320963875507</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.02271250607248779</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.02037362629724965</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.02155010613822065</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.02276591697473628</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.02330846851726468</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.02259974315693397</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.02182487271097165</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.02378781018187005</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.02563908506049326</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.02884542218572126</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.02115138458429505</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.02577586144872662</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.02082416983086862</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0213374579253165</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01990438485617384</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.02204178380641729</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.02116712799986545</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.01998368690849095</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.02008260734053994</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.02111054951297874</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.02251469529627582</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.02187119762489623</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.01891520074531552</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.02366103677850838</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.02370369466275405</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.02906804318821641</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.020090775260188</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.02488576186272742</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.02071191273203617</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.01951985973132398</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.02064728295842491</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02117251423483393</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.02139804157306269</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.01956707627978376</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.01970870632868455</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.02093949786031367</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.02176675154923562</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.02129864255434516</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.01867684700220403</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.02293355046185753</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.02237750732562948</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.02933910539016121</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01955196795864444</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.02355077699451724</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.02043508151487003</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.01872982743235903</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.02010848163156654</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02091025736214647</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0192644776269238</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0192161633389762</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.02071746037919285</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.02175160757193579</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.02154207305718753</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.02092530483234644</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.0190357508152273</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.02178038430134721</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.02143568243330063</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.02908360418776837</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01933237274545516</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.02291534572906611</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.01934828707798412</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.01840849301725281</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.01860113742111606</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01994960691004053</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01915427166535311</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.01867129749920132</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.01953113285060731</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.02086048362795939</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.02098547069281962</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.02200080743257836</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.01849552077467503</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.0225484648157615</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.02049135050757893</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.02729249460853175</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01971163396341732</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0205280856363768</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.01809603562115223</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.01811705085678279</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.01881092695506746</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01882090100807924</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.01828301092321883</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.01803006272774262</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.01902748760067728</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0199232027431031</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.02123524752424197</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.02068313839165765</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.01847481823176874</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.02185735325967168</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.01971664809662773</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.02762264501805777</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.01902724601217566</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.02085871602976113</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.01823478193953305</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.01929011312970741</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.01812600175054766</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01842557125199467</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.01748056017799837</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.01681055275271082</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.01887894528198456</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.01950165327094611</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.02125682849764922</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.02071554749535002</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.01909160193581114</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.02053219645693945</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.01987279741767655</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.02618852719277936</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.01973433288631743</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.02035304103347294</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.01693032176793471</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.01958080971773547</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.01805414642022546</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01838624293886444</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.01682596961723372</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.01720791765060664</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.01816426380488565</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0193701299816338</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.02065996444564209</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.02081156720043837</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.01864787060916721</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.02093007035266762</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.02023030576318787</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.02445260349769443</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01942655822473271</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.02055580509316869</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0168597483749535</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.01971262090219929</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.01852671516807934</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01805104478120888</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.017163683869209</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.01743833151979051</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.01913183027232415</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.01755655429916866</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.02094274638367703</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0199363515035101</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.01785200218310795</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.02146671602662309</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.02032113841833052</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.0247379137120788</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.01908454438785148</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.02099111220532499</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.016242464172439</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.02067707340169768</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.01828796858053086</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01897099616939057</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.01843077726290782</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.01685018084648738</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01951645236436359</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.01752105969790389</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.02108364729862538</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.02008034517068103</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.01776395874920429</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.021624689952705</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.01950338247864288</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.02375457883685562</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01968071825128087</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.02001714826858207</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.01709367384835585</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.01958308068576002</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.01826289329763616</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01769010369329686</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.01796205437231039</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.01657549739871279</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.02008082621436874</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.01710573579500445</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.02088475918198027</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.01944660655396875</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.01850108672973269</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.02222641468627747</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.01978189697853198</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.02349746675083678</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0192868811971266</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0190797398311588</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.01693273560380879</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.01975497685318588</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.01752332438131816</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.01736967529115343</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.01855817844370683</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.01685112024407418</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.01938480723064989</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.01641331504772994</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.02100185033883436</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.01956922832067297</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.01829301565070315</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.02174217596661727</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.01907465398017208</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.022357932334603</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.01875332913166151</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01924923934051827</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.01707105335599155</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.01947268538318289</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.01761430808320358</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.01716173239945469</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.01843030662973636</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.01706955633487218</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.01920734376962388</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.01691795521645708</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.02107030101217207</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.01955118760964878</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.01873510836365617</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.02065153629476097</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.01825985397633001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.02128064786887129</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.01997719427827684</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01862233338722995</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.01817519090991545</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.01937444454829347</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.01805620567170459</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.01751537568248851</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.01817548235592312</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.01669047333189156</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.01887242160505278</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.01765894376591809</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.01996827942140525</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.01979280606826454</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.0182477860862251</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.02263826634138898</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.01813510428683761</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.02162027524976414</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.01975019179697272</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01817146505779874</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.01795173485714814</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.01984981458093419</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.01843208192419499</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.018408780679604</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.01835952832930414</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.01641476339357838</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.01869185441504568</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.01842954694682249</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.01928862253225312</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.01948398059510307</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.01811482315428192</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.02303197557874024</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.01802348106616844</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.02204106076697927</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.01900302738118348</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.01721300165605221</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.01705273185950268</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.02009646725751332</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.01887618777245165</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.01843837639665809</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.01876425195612734</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.01714412662992875</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.01897519872274529</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.01764497240462156</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.01871941488911754</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.01893685865694768</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.01744007037401995</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.02339792042234876</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.01795680670864878</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.02177120366607142</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.01854885217785523</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.01755280416499924</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0170006521428421</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.01973746986654355</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.01889071084892591</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01783564904778055</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.01851951479940605</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.01688395197570572</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.01960592747282435</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.01760066351611284</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.01884554038711536</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.01928324171523551</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.01694387539939726</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.02275292464886775</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.01822496430362814</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.02086821564489836</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.01897462455909185</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01738344865072526</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.01613570436843601</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.01962117124392048</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.01786496125372298</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01779435257160079</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.01847304102088571</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.01745383822501165</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.01931428688900875</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.01800544828020555</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.01923707941951861</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.01870144427647409</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.01789351550361731</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.02314240952957284</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.01841283574781048</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.01997884378213003</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.01948860529972384</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01800108075538622</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.01704574753309708</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.01966849084246924</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0181571371928587</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.01842932166244711</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.01730622380002085</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.01706277732378996</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.01888886869817649</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.01804713456001916</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.01908693656578684</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.01831970645266223</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.01836745748936655</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.02334343411701445</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.0179318705619898</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.02069484430245312</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.01985873870801748</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01740770921602209</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.01731635651659013</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.01900097545561217</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.01810295832482072</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.01904638376806562</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.01609455434737962</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.01754536567873023</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0181350939158973</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.01767451551654978</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.01992680090264054</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.01773534492675202</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.01811203064287384</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.02330178999956034</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.01882477325404655</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.02029140013479364</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.01963805329445766</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.01820268048606472</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.01775541075425306</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.01965968316418537</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.01836520372058379</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.01916145461269202</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0168109236713033</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.01793147691384181</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.01916105372545316</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.0181979181385859</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.01941985682985888</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.01843544088094152</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.01818829158611379</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.02389899279870255</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.01870937339071854</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.02013859375261341</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.01905455308826478</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01763630927878267</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.01804051049961749</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.01939008170846123</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.01882603487560143</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.01890920020897148</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0166144966912826</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.01788945150910877</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.01985899294408126</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.01797006777821903</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.01940118901140219</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.01838317017558589</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.01860262759151949</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.02250646628362588</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.01950041593903523</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.02075669431831354</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.0189837602053127</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.018039777038814</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.01736858298441904</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.01907360810708004</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.01926970583063444</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01992626700064777</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.01624753526533011</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.01726792867059051</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.02055141244131089</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.01775936159338268</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.01954840525957909</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.01872140155163354</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.01918911039228503</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.02209200123914141</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.0203019088900918</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.02207208188604378</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.01940364928583323</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01851190888009265</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.01750508791775347</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.01940125357435123</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.01976073257104267</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.01936352939040186</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.01647264046775818</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.0173505839702999</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0205966898884458</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.01693189779831527</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.01954279426747943</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.01886634975223526</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.01971432331629835</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.02153622613397487</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.02043336301244003</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.02162765725567321</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.01906966175250079</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01779720438318893</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.01767791492962658</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.01921702218274453</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.01965307971932411</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.01908208956689825</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.01578303301066247</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.01756104135063323</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.02085950473334795</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.01660675928204809</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.01875076700626121</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.01896487111195028</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.01948201105723103</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.02199952895441078</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.02022183438439463</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.02036034010188854</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.01878513844335683</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01724040722120764</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.01688015765541119</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.01860837246544963</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.01900512941422221</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.01878464079724532</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.01468042764128718</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.01702704780034815</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.02074713305111529</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.01656506725154638</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.01814690719272802</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.01899838263865312</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.01966873649293272</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.02152324227905259</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.02002215420834672</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.02037699886598904</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.01829261547057083</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.01719740115787545</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.01780328413085247</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.01844637806910611</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.01812721389919463</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0176637190979695</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.01429903342795393</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.01649856852928527</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.02052669339335643</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.01727216490363806</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.01832518372677027</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.01928395754054325</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.01986054499251301</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.02115134164891464</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.01991185514451294</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.02009628190115411</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.01843223652784459</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.01719654360851672</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.01782207184336484</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.01844317180260002</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.01806803919927676</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.01711990432845138</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0138121826980801</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.01646647425162339</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.01989952303690644</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.01664036611707361</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.01786744984818343</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.01831229067621159</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.01859818553349631</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.02209108924930157</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.01991273201299716</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.0194358310047619</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.01817204338990198</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.01675838125514575</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.01699810520945183</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.01834376608184602</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.01837548920120501</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.01676607245594318</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.01466080965318939</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.01621621158379361</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.01970037825523071</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.01636615664643211</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.01790106473097493</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.01833689385504979</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.0173632853550392</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.02245387783669534</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.01959194328253615</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.01896919303689199</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.01741047912098817</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01648649540954732</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.01710329508741274</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.01818188073982203</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.01854422669723226</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.01737287508681473</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.01484015081684901</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.01634973581720871</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.02018662142758734</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.01627310993791235</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.01803242986391322</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.01840702372209333</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.01667433148508495</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.02209822418513896</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.0200888204642802</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.01900599392557625</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.01718697936888071</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.01568845178840724</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.01647078371074965</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.01807210410024835</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.01849287917916121</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01762777267649906</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.01447114171717518</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.01626715087826243</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0203759864337548</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.01534306000486746</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.01890899739391392</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.01830474167228873</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.01656186163363663</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.02256647744369629</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.01966034944779677</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.01705272856613899</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.017505712143236</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01406508186397685</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.01559212777852584</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.01861381909027955</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.01832911621392365</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.01613272424849394</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.01401225761901009</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.0160057916981371</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.02055595143162664</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.01440567742388402</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.01827186127034237</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.01756923484606811</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.01541606993533328</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.02175154451073219</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.01951949960206068</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.01681792729823365</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.01676444279659171</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01440470506012603</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.01533237841299272</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.01900670206044248</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.01791866825122635</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.01490885978723782</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.01338445742368069</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.01601782436121843</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.02009011607230554</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.01452531278104693</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.01759967034108235</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.01727529783587948</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.01546808992175923</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.02125756481181673</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.01912174906294252</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.01660005345664912</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.01587164781439267</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01463851212160358</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.01524760486054977</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.01867110440359169</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.01736756147917177</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.01437671984489057</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.01355081171393395</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.01550718427474749</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.01991286759797631</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.01414071614905955</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.01742478134704646</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.01683026710807926</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.01549554927103666</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.02032390253911622</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.01867863049139562</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.01635158359278471</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0151708442720797</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.01363683243001725</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.01457348504827804</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0180015049765681</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.01652917241841199</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.01475105172581692</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.01303047340515143</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.01542984154895698</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.01987298153004404</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.01409151071317056</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.01685499501342696</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.01631152074324546</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.01549954712798073</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.01893975403467164</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.01758162558804138</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.01530501688771058</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.01462256570196259</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.01288651963733907</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.01397978623879731</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.01621686341279908</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.01588801054643404</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.01372302041190273</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.0114788061272874</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.0148104831052611</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.01939173909102895</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.01365007137031726</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.01647168984306215</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.0149310433951516</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.01479359985803891</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.01780005226535954</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.01721753874900097</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.01446507616095055</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.01369245318901449</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.0117811948831963</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.0131075701045246</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.01598846506837756</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.01611310265500126</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.01199851202238227</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.01117611284742503</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.01425362200446519</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.01816287460224245</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.01394518123292698</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.01565906083490189</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.01415194735430786</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.01437427151271828</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.01567378302613633</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.01630581245125692</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.01395292824198957</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.01429965638894575</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.01088800781652329</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.01309132885971596</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.01625292383579904</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.01532455369987626</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.01138656940730374</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.01074736524436225</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.01421627743745324</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.01725201459451221</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.01403594195716221</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.0152070902102221</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.01428007948407621</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.01338351829784743</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.01408917837595708</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.01632240250661551</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.01350555944241023</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.01500337455115894</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.01030590739491307</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.01222327491775559</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.01628379832745598</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.01544116968929454</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.01163806488941014</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.01081314985905095</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.01372870267298999</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.01749653746886805</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.01270438226510022</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.01504247617614409</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.01450211573848416</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.01290030763998654</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.0134703436029857</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.01646785126532961</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.01300542344484813</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.01502639785120879</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.009559101865709683</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.01176518620820085</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.01657263456971647</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0158173138481364</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.01122673221594192</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.009681198389190137</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.01406984998267641</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.01783906449802796</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.01305403639229957</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.01464950682234302</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.0149021970643288</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.01280843882312581</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.01139049439818665</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.01640247788729741</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.01276773586630497</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.01497554156288363</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.009520555688676628</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.01231657307025166</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0164862604759201</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.01514994683829008</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.01062897147407461</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.008831796134254298</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.01405196394899172</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.01798005941219129</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.01188189709283734</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.013795112039167</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.01445606328445339</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.01223808932962685</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.01150682851014406</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.01623867118309349</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.01158562816149527</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.01494422012286678</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.009279002133747914</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.01160048319258193</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.01560336757884279</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.01451308752368858</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.01061667468148799</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.007621780335246186</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.01450785470477172</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.01834764930420774</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.01238497318808337</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.01294214885126526</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.01373902035411448</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.01178707515863381</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.01094175259010954</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.01611423685127705</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.01055291767547968</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.01491331909101821</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.008636532371471934</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.01095920071561016</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0154363734027691</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.01365584335381003</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.01057875699323682</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.006819836416603818</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.01421585851470454</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.01757868620922838</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.01221477636934259</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.01286246965754697</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.01353302636491157</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.01154129851148582</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.0097636441645894</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.01604428957081092</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.009475853334558651</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.01506093126679325</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.007689932293811179</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0111067712369542</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.01599630122649323</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.01360752641290332</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.01136422637426525</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.006011162257858257</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.01381375976147012</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.01716408858992571</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.01213223670563113</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.0117027667214226</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.01450122754485063</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.01096732128063423</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.009595516305734643</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.01560602673713826</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.01066031638077524</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.01565005718457793</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.00690172439304762</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.01120631750461219</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.01565579315981778</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.01363237533078315</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.01067932971029961</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.006034533597639642</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.01402214606861113</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.01707062496475121</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.01191401427671824</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.01125288805737911</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.01427025346413807</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.01171607513012639</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.009641140996483147</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.01581803301677635</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.009272530071964661</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.01549923713509397</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.007201203829703851</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.01162148318512285</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.01563298843410178</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.01304800618041023</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.009581516374486102</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.006563496717308224</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.0144234843356066</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.01731596006399311</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.01107835598097735</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.01205121742197864</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.01338542594838448</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.01176880232053771</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.009090076587592146</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.01623647743853604</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.009047269131042413</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.01575484859552793</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.007076323717493302</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.01145748047362455</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.01511470787297766</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.01334389605116889</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.009819336183702237</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.00553914011346832</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.01440258003431153</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.01661775546762859</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.01100841347360255</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.01212252827128408</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.0134819938587883</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.01184103768578855</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.008168765896339716</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.01610936216997819</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.008067767584842992</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.01621899143154022</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.007205176438662873</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.01076242169979449</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.01447384451721834</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.01236795259944125</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.010303970627812</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.006565491772743014</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.01370196363673888</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.01703067008161775</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.01062579793586641</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.01179816302247142</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.01355785903848654</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.01251792054997283</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.008571342423046087</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.01608844932823736</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.008203667240075497</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.01749428553744615</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.007334743325604144</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.01012384163860784</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.01393442664486441</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.01265995996656007</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.01114115123766198</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.006617013157295381</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.01346006504898535</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.0171850428666504</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.009796999120614051</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.01178662173563351</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.01397351808565569</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.01293808699446054</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.008936254503042402</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.01592508406767289</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.007770883014566401</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.01720655476022633</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.007159020715066491</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.01039337827227643</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.0135930780431737</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.01217743842141519</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.009539401513066301</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.006391957500718585</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.01342304366906623</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.01715054022970435</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.01023683220663417</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.01170924514198709</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.01338026082152308</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.01349950542825127</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.008785637840363354</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.01643737079062456</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.00684502130509625</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0166483988457508</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.007571724049769399</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.00916998137305459</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.01342339351741026</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.01170891148495785</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.009894556677292913</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.006532363931948261</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.01371654481832695</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01716515646693514</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.01000929364598985</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.01059517101482722</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.01211335936249043</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.01365325531847172</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.009376595077554201</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.01623195004817464</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.006250770840319494</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.01645551850343611</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.007320549305507029</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.009789644456734302</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.01431038946271757</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.01160411288364382</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.00897016177832752</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.007263983422252017</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.01383798278928023</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01653973730398724</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.01005041464117211</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.01090942638420781</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.01244020916606954</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.01235423726382407</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.00853150258477374</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.01553441458234172</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.006349888925347437</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.016558067711397</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.007188066360460097</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.009680791687619855</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.01377539581796472</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0113620792119644</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.009207314257047175</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.007001401800107486</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.01376490074793411</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0166760954629208</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.009694393958140304</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.01123318295775309</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.01213658169515668</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.01204819728931928</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.007739710683471099</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.01512556806577873</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.0073791351428099</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.01575351607762217</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.00713035540599378</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.008956276016722753</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.01348285541024552</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.01063789942097249</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.008104948465774619</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.007192136507415446</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.01255455477347721</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01584909964466938</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.01032917950009657</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.01100770704068799</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.01142491561559937</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.01188665835751495</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.008656712651963971</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.01469303116806454</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.00745282579404021</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.01585897565060906</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.007250644434083933</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.009338160717469341</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.01285926093315892</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.01026129008554967</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.009413809361139001</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.00740696039470608</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.01179095638270017</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01629352422203536</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.01165860049411044</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.01041542185143084</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.0120134960794404</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.01222888056264916</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.007644370322619428</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.01482688550077443</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.007407174452767624</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.01551097159947908</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.00761676746066971</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.009203684448973744</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.01417623318037865</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.01095803706704778</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01027157986973432</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.008070766780045032</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.01244966539654166</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01627043939203456</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.01129902953472436</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.0108291800943549</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.01162712076309762</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.0124951670993596</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.007829226261355239</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.01549552768873354</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.007878311005495358</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.01571327973438202</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.008943834203171025</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.009579654517781618</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.01501475213669449</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.01094806989574156</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.009160132246125762</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.00815234265222229</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.01213663016956414</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01534020344145498</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.01060435390832531</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.01096397807923084</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.01063507969737556</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.01194658666136977</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.008130409073235494</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.0154390389005635</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.006969246894598451</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.01533216271601027</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.009219352095969193</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.008376717660290625</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.01491968321680461</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.01149687683707978</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.01031647308980463</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.00803630030656121</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.01294398284478449</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01579261628378644</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.01046740375830284</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.0110477327836779</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.01027416896076324</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.01082980611411131</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.007708347785122293</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.01479315353454543</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.007714424191846721</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.01563634392039148</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.008183210395318639</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.008575018913054717</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.01409101875572295</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.01147263261880434</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.01038991672060471</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.007407765980461379</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.01182723447968784</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01584154310454583</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.01024408897812161</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.01136545465351067</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.009361302625315046</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.01162442704000013</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.006947928330933138</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.01522645405521466</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.007671128665222367</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.01618482727485445</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.00769709116968329</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.008984914025090053</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.01393447150785315</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.01078021021807748</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.008557332980142799</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.006816137665797821</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.01278798161416211</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01610412093933114</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.01048889563732523</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.01062664876849213</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.00891989753114078</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.01317460850927243</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.007794252133212214</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.01410333580409492</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.007671821655833356</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0171300687040247</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.00777177036045676</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0082006219863848</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0140331997247813</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.01001081314771757</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.008358495911659249</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.006721702133420844</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.01264503589295853</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01571134933481568</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.0102248761780945</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.01002229699378808</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.008687090197063048</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.01355383491128982</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.007070801450078711</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.01449601950783087</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.007363926422378116</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0171130822479275</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.008612094697939989</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.009075743142070934</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0138922430685606</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0105222620695814</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.008692586667325168</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.007044647583485483</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.01231042819055372</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01576927105940689</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.009376072426188226</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.01122638098771632</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.0101534266196773</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.01331143905233855</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.008816151730049012</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.01450461864336093</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>